--- a/documents/Popcorn 2018 Seller Form.xlsx
+++ b/documents/Popcorn 2018 Seller Form.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpeak/Dropbox/Scouts/WebScout/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ECD7A5-3A68-1B44-A951-133AD8BC3DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31640" windowHeight="19200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -69,9 +80,6 @@
     <t>Military Donaton</t>
   </si>
   <si>
-    <t>Sea Salt Splash Light</t>
-  </si>
-  <si>
     <t>Kettle Corn Microwave</t>
   </si>
   <si>
@@ -106,12 +114,15 @@
   </si>
   <si>
     <t>555 Anystreet, Lenexa</t>
+  </si>
+  <si>
+    <t>Sea Salt Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -324,20 +335,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -381,6 +392,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -705,12 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
@@ -736,9 +757,9 @@
     <col min="22" max="22" width="5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="152" customHeight="1" thickBot="1">
+    <row r="1" spans="1:27" ht="152" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -765,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
@@ -798,11 +819,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22"/>
       <c r="D2" s="7">
         <v>10</v>
       </c>
@@ -861,25 +882,25 @@
         <v>100</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="23"/>
-    </row>
-    <row r="3" spans="1:27">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="24"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -917,10 +938,10 @@
         <v>140</v>
       </c>
       <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -952,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -1048,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -1080,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -1112,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -1144,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -1208,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -1240,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -1272,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -1336,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -1368,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -1400,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>18</v>
       </c>
@@ -1464,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>19</v>
       </c>
@@ -1496,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -1528,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -1592,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -1624,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -1656,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -1720,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -1752,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -1784,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -1816,12 +1837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" thickBot="1">
+    <row r="32" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="24"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="14"/>
@@ -1850,13 +1871,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" thickTop="1">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="21" t="s">
-        <v>25</v>
+    <row r="33" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D3:D32)</f>
@@ -1943,11 +1964,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="22"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
